--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_PizzaShop\Docs\Lab1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7A1450-6C8F-4B7A-BB8D-15580FAED957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC2511-7703-4095-9CBA-2F44B969BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="96">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -121,18 +121,12 @@
     <t>Tool-based Code Analysis</t>
   </si>
   <si>
-    <t>Effort to perform tool-based code analysis (hours):</t>
-  </si>
-  <si>
     <t>C01</t>
   </si>
   <si>
     <t>C02</t>
   </si>
   <si>
-    <t>PizzaService attribute is not used</t>
-  </si>
-  <si>
     <t>OrdersGUI:20</t>
   </si>
   <si>
@@ -161,19 +155,190 @@
   </si>
   <si>
     <t>two branches that are the same</t>
+  </si>
+  <si>
+    <t>Constant name should comply to a naming convention</t>
+  </si>
+  <si>
+    <t>PaymentType:4</t>
+  </si>
+  <si>
+    <t>Cash, Card</t>
+  </si>
+  <si>
+    <t>CASH,CARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.listMenu= new ArrayList();</t>
+  </si>
+  <si>
+    <t>MenuRepository:20</t>
+  </si>
+  <si>
+    <t>Raw types should not be used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        this.listMenu= new ArrayList&lt;&gt;();</t>
+  </si>
+  <si>
+    <t>MenuRepository:18</t>
+  </si>
+  <si>
+    <t>Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t>//ClassLoader classLoader = MenuRepository.class.getClassLoader();</t>
+  </si>
+  <si>
+    <t>KitchenGUIController</t>
+  </si>
+  <si>
+    <t>Constructors should not be used to initialize "String"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String extractedTableNumberString = new String();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    private String extractedTableNumberString = "";</t>
+  </si>
+  <si>
+    <t>OrdersGUI:39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     stage.setOnCloseRequest(new EventHandler&lt;WindowEvent&gt;() {
+      @Override
+     public void handle(WindowEvent event) {
+         // consume event
+         event.consume();
+            }
+        });</t>
+  </si>
+  <si>
+    <t>Annonymous Inner Classes containing only one method should become lambdas or method references</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        stage.setOnCloseRequest(Event::consume);</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>model/</t>
+  </si>
+  <si>
+    <t>Inconsistenta in numire:                                                         Ex: MenuDataModel vs Payment</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Din cauza cerintelor destul de vagi nu putem spune daca asta este arhitectura dorita de client, insa este foarte apropiata de un MVC si satisface cerintele impuse in fisierul de requirements.  De altfel am mai identificat si ca:                                                                                           -&gt; Bucataria se poate inchide oricand
+-&gt; Restaurantul se poate inchide si daca sunt inca clienti inauntru
+-&gt; Clientii pot pleca dupa ce au comandat (mai exact, oricand)</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>Erorile sunt luate in considerare la nivel arhitectural doar prin prinderea acestora in locurile unde ar putea sa sara. Nu exista un middleware care ar trata erorile si ar face retry. Nu exista legatura cu serviciul unde se fac validarile. De exemplu, s-ar fi putut crea o dependinte cu Repository-urile claselor din Model.</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✓                                                                                          Din ce vedem, aplicatia incearca sa urmeze design patternul MVC (Model, View, Controller) </t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>service/PaymentAlert</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>nu se specifica tipul aplicatiei(web, mobile, etc)</t>
+  </si>
+  <si>
+    <t>f01, trebuie sa retinem si un ID unic pt plata, altfel nu putem face totalu platilor distincte</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>RO1</t>
+  </si>
+  <si>
+    <t>RO2</t>
+  </si>
+  <si>
+    <t>Nu este specificat in ce ordine serveste chelnerul pizza</t>
+  </si>
+  <si>
+    <t>Clientul poate plati fara sa primeasca plata</t>
+  </si>
+  <si>
+    <t>Aplicatia trebuie sa faca visibil faptul ca o masa este deja ocupata, si sa nu lase sa se mai puna altcineva la acea masa</t>
+  </si>
+  <si>
+    <t>Nu se specifica cum se face interactiunea cu interfata</t>
+  </si>
+  <si>
+    <t>40min</t>
+  </si>
+  <si>
+    <t>40m</t>
+  </si>
+  <si>
+    <t>Nu in totalitate, de exemplu un service ar trebui sa "comande" fiecare parte pentru a putea executa un serviciu. De exemplu PaymentAlert nu este un serviciu, este mai mult o parte utila din GUI deoarece este raspunzator de alertarea grafica a utilizatorului si de implementarii interfetei de PaymentOperation</t>
+  </si>
+  <si>
+    <t>50min</t>
+  </si>
+  <si>
+    <t>atributul PizzaService nu este folosit</t>
+  </si>
+  <si>
+    <t>SonarLint</t>
+  </si>
+  <si>
+    <t>Effort to perform tool-based code analysis (hours):40m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -352,79 +517,80 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,10 +932,10 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +943,7 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="49" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
     <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
@@ -789,19 +955,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -814,51 +980,63 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="26"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="28"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -875,75 +1053,98 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+      <c r="B10" s="22">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
-        <f>B10+1</f>
+      <c r="B11" s="22">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="1">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B25" si="0">B11+1</f>
+      <c r="B12" s="22">
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <f t="shared" si="0"/>
+      <c r="E13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
+      <c r="B15" s="22">
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="22" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B16:B23" si="0">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
@@ -999,30 +1200,14 @@
       <c r="D23" s="3"/>
       <c r="E23" s="15"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="15"/>
-    </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="1"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1045,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1065,19 +1250,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1090,51 +1275,63 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="29"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="31"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1150,98 +1347,142 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="22">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="B11" s="22">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
+        <f t="shared" ref="B12:B19" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="B13" s="22">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="E13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+      <c r="B14" s="22">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="E14" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="B15" s="22">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="22">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="E16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="B17" s="22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="3">
+      <c r="B18" s="22">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="B19" s="22">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B20:B26" si="1">B19+1</f>
         <v>11</v>
       </c>
       <c r="C20" s="1"/>
@@ -1250,7 +1491,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C21" s="1"/>
@@ -1259,7 +1500,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C22" s="1"/>
@@ -1268,7 +1509,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C23" s="1"/>
@@ -1277,7 +1518,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C24" s="1"/>
@@ -1286,7 +1527,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C25" s="1"/>
@@ -1295,7 +1536,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C26" s="1"/>
@@ -1307,7 +1548,9 @@
         <v>8</v>
       </c>
       <c r="D28" s="12"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1330,8 +1573,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1351,19 +1594,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1376,8 +1619,8 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="35" t="s">
-        <v>38</v>
+      <c r="I3" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="J3" s="17">
         <v>231</v>
@@ -1387,15 +1630,15 @@
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="30"/>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="35" t="s">
-        <v>39</v>
+      <c r="I4" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="J4" s="3">
         <v>231</v>
@@ -1405,15 +1648,15 @@
       <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="32"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="35" t="s">
-        <v>40</v>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="J5" s="3">
         <v>231</v>
@@ -1424,15 +1667,15 @@
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -1453,13 +1696,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1468,13 +1711,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1483,13 +1726,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1498,13 +1741,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1665,7 +1908,9 @@
         <v>8</v>
       </c>
       <c r="D32" s="12"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1688,8 +1933,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1697,9 +1942,9 @@
     <col min="1" max="1" width="8.85546875" style="6"/>
     <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="6" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
     <col min="10" max="16384" width="8.85546875" style="6"/>
@@ -1710,19 +1955,19 @@
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="H2" s="3"/>
       <c r="I2" s="19" t="s">
         <v>30</v>
@@ -1735,40 +1980,54 @@
       <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="I3" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="17">
+        <v>231</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="D4" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="3">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
       <c r="H5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="3">
+        <v>231</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="20"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1788,54 +2047,92 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
@@ -1998,11 +2295,11 @@
       <c r="F30" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
+      <c r="C32" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="18"/>
     </row>
   </sheetData>

--- a/Docs/Lab1/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab1/Lab01_ReviewReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_PizzaShop\Docs\Lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1BC2511-7703-4095-9CBA-2F44B969BB41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6984CD-3F6F-4690-9758-D6E9AB22FFFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="1935" windowWidth="21600" windowHeight="11385" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="650" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -276,9 +276,6 @@
     <t>nu se specifica tipul aplicatiei(web, mobile, etc)</t>
   </si>
   <si>
-    <t>f01, trebuie sa retinem si un ID unic pt plata, altfel nu putem face totalu platilor distincte</t>
-  </si>
-  <si>
     <t>R05</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>Clientul poate plati fara sa primeasca plata</t>
   </si>
   <si>
-    <t>Aplicatia trebuie sa faca visibil faptul ca o masa este deja ocupata, si sa nu lase sa se mai puna altcineva la acea masa</t>
-  </si>
-  <si>
     <t>Nu se specifica cum se face interactiunea cu interfata</t>
   </si>
   <si>
@@ -319,6 +313,12 @@
   </si>
   <si>
     <t>Effort to perform tool-based code analysis (hours):40m</t>
+  </si>
+  <si>
+    <t>Aplicatia trebuie sa faca vizibil faptul ca o masa este deja ocupata, si sa nu lase sa se mai puna altcineva la acea masa</t>
+  </si>
+  <si>
+    <t>Trebuie sa retinem si un ID unic pt plata, altfel nu putem face totalu platilor distincte</t>
   </si>
 </sst>
 </file>
@@ -935,7 +935,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1071,13 +1071,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1085,11 +1085,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
@@ -1097,11 +1097,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1109,11 +1109,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1121,11 +1121,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1231,7 +1231,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1451,7 +1451,7 @@
         <v>77</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1702,7 @@
         <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1934,7 +1934,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:E32"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1992,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="32"/>
       <c r="H4" s="17" t="s">
@@ -2296,7 +2296,7 @@
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="C32" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="36"/>
